--- a/Code/Results/Cases/Case_6_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_18/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.965411591198688</v>
+        <v>1.171950081042439</v>
       </c>
       <c r="C2">
-        <v>0.3199687755364948</v>
+        <v>0.08861730483006625</v>
       </c>
       <c r="D2">
-        <v>0.006971955056890522</v>
+        <v>0.08388745182205071</v>
       </c>
       <c r="E2">
-        <v>0.02769379369847158</v>
+        <v>0.05831933137805478</v>
       </c>
       <c r="F2">
-        <v>1.974847529486155</v>
+        <v>0.9229056605191133</v>
       </c>
       <c r="G2">
-        <v>0.0008331518620170175</v>
+        <v>0.0008293185564923027</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05991572074080587</v>
+        <v>0.06787603572789536</v>
       </c>
       <c r="K2">
-        <v>0.6742821485665687</v>
+        <v>0.9304199162912425</v>
       </c>
       <c r="L2">
-        <v>0.2602910822322286</v>
+        <v>0.1913452486315919</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.232204949374164</v>
+        <v>1.086307814935909</v>
       </c>
       <c r="O2">
-        <v>1.406201632628637</v>
+        <v>2.392924739056582</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.612796352876558</v>
+        <v>1.027990895461727</v>
       </c>
       <c r="C3">
-        <v>0.2767286042033561</v>
+        <v>0.08572169982807054</v>
       </c>
       <c r="D3">
-        <v>0.006303388953748268</v>
+        <v>0.07552598039992375</v>
       </c>
       <c r="E3">
-        <v>0.02745149447867856</v>
+        <v>0.05606695481377599</v>
       </c>
       <c r="F3">
-        <v>1.876001481462623</v>
+        <v>0.9050744434410731</v>
       </c>
       <c r="G3">
-        <v>0.0008403673446714022</v>
+        <v>0.0008330081955245725</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06072292483387187</v>
+        <v>0.06830850192865157</v>
       </c>
       <c r="K3">
-        <v>0.5894654667661712</v>
+        <v>0.8091641496239674</v>
       </c>
       <c r="L3">
-        <v>0.2346248462597487</v>
+        <v>0.1726872010021836</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.290469022763887</v>
+        <v>1.133563288032041</v>
       </c>
       <c r="O3">
-        <v>1.337112172498507</v>
+        <v>2.372342761944651</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.399686951354624</v>
+        <v>0.9401054071255999</v>
       </c>
       <c r="C4">
-        <v>0.2504229170875192</v>
+        <v>0.08394506531276846</v>
       </c>
       <c r="D4">
-        <v>0.005898159040093276</v>
+        <v>0.07044139994682297</v>
       </c>
       <c r="E4">
-        <v>0.02732639484200661</v>
+        <v>0.05474209963573351</v>
       </c>
       <c r="F4">
-        <v>1.818932448053033</v>
+        <v>0.8954715890566192</v>
       </c>
       <c r="G4">
-        <v>0.0008449306139149032</v>
+        <v>0.0008353532007246716</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06128607890554783</v>
+        <v>0.06864962253168905</v>
       </c>
       <c r="K4">
-        <v>0.5381248007593626</v>
+        <v>0.7349382391051904</v>
       </c>
       <c r="L4">
-        <v>0.2191765569313304</v>
+        <v>0.1613689234895404</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.327938435664556</v>
+        <v>1.163768519315384</v>
       </c>
       <c r="O4">
-        <v>1.297389042075665</v>
+        <v>2.363417755650062</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.313607911878876</v>
+        <v>0.9044049633531586</v>
       </c>
       <c r="C5">
-        <v>0.2397538095557934</v>
+        <v>0.08322121322116516</v>
       </c>
       <c r="D5">
-        <v>0.005734129902705831</v>
+        <v>0.06838108502460472</v>
       </c>
       <c r="E5">
-        <v>0.02728120169857196</v>
+        <v>0.05421635524620072</v>
       </c>
       <c r="F5">
-        <v>1.796526257955861</v>
+        <v>0.8918844577132106</v>
       </c>
       <c r="G5">
-        <v>0.000846824669548242</v>
+        <v>0.0008363291061597097</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06153205576044662</v>
+        <v>0.06880720916508665</v>
       </c>
       <c r="K5">
-        <v>0.5173670830908677</v>
+        <v>0.7047368517183514</v>
       </c>
       <c r="L5">
-        <v>0.2129527553976942</v>
+        <v>0.1567891107921042</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.34361990730315</v>
+        <v>1.176371021502765</v>
       </c>
       <c r="O5">
-        <v>1.281833779804757</v>
+        <v>2.360681156796375</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.299358243809479</v>
+        <v>0.8984834080255837</v>
       </c>
       <c r="C6">
-        <v>0.2379849759476116</v>
+        <v>0.08310102161028965</v>
       </c>
       <c r="D6">
-        <v>0.005706953769365697</v>
+        <v>0.06803965690330926</v>
       </c>
       <c r="E6">
-        <v>0.02727404221933405</v>
+        <v>0.05412989681504676</v>
       </c>
       <c r="F6">
-        <v>1.792855354213771</v>
+        <v>0.8913081658858459</v>
       </c>
       <c r="G6">
-        <v>0.0008471412886216223</v>
+        <v>0.0008364923886742706</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06157388201451219</v>
+        <v>0.06883448613520216</v>
       </c>
       <c r="K6">
-        <v>0.5139295915741897</v>
+        <v>0.6997244339661961</v>
       </c>
       <c r="L6">
-        <v>0.2119234302964372</v>
+        <v>0.1560305361274033</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.346248324699566</v>
+        <v>1.178481231200918</v>
       </c>
       <c r="O6">
-        <v>1.279287736195265</v>
+        <v>2.360280190184852</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.398523076620847</v>
+        <v>0.9396234959905314</v>
       </c>
       <c r="C7">
-        <v>0.2502788381272865</v>
+        <v>0.08393530284956086</v>
       </c>
       <c r="D7">
-        <v>0.005895942684064792</v>
+        <v>0.07041356741207494</v>
       </c>
       <c r="E7">
-        <v>0.0273257621359031</v>
+        <v>0.05473495259437833</v>
       </c>
       <c r="F7">
-        <v>1.818626906726465</v>
+        <v>0.8954219071224827</v>
       </c>
       <c r="G7">
-        <v>0.0008449560168857452</v>
+        <v>0.0008353662795487478</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06128933010746884</v>
+        <v>0.06865167313461029</v>
       </c>
       <c r="K7">
-        <v>0.5378442178938911</v>
+        <v>0.7345307586990089</v>
       </c>
       <c r="L7">
-        <v>0.219092339534896</v>
+        <v>0.1613070298429449</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.328148269315825</v>
+        <v>1.163937299464791</v>
       </c>
       <c r="O7">
-        <v>1.297176757180246</v>
+        <v>2.363377245813382</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.843068567520561</v>
+        <v>1.122199457866316</v>
       </c>
       <c r="C8">
-        <v>0.3050022453757322</v>
+        <v>0.08761852123461011</v>
       </c>
       <c r="D8">
-        <v>0.006740198393750063</v>
+        <v>0.08099371243276465</v>
       </c>
       <c r="E8">
-        <v>0.02760523123472947</v>
+        <v>0.0575303614934537</v>
       </c>
       <c r="F8">
-        <v>1.939975325028911</v>
+        <v>0.9164706282884225</v>
       </c>
       <c r="G8">
-        <v>0.0008356128296372306</v>
+        <v>0.000830574413066966</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0601797217661364</v>
+        <v>0.06800919819619367</v>
       </c>
       <c r="K8">
-        <v>0.6448710150993691</v>
+        <v>0.8885575980417286</v>
       </c>
       <c r="L8">
-        <v>0.2513726662823785</v>
+        <v>0.1848819924387186</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.251933950677945</v>
+        <v>1.102351004918394</v>
       </c>
       <c r="O8">
-        <v>1.381790720053388</v>
+        <v>2.385037154242667</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.746215743395737</v>
+        <v>1.484912902304075</v>
       </c>
       <c r="C9">
-        <v>0.4147802461512242</v>
+        <v>0.0948606152758984</v>
       </c>
       <c r="D9">
-        <v>0.008449058075701288</v>
+        <v>0.1021689097158003</v>
       </c>
       <c r="E9">
-        <v>0.02834934922264321</v>
+        <v>0.06349573803805697</v>
       </c>
       <c r="F9">
-        <v>2.209689858272654</v>
+        <v>0.9690071713092365</v>
       </c>
       <c r="G9">
-        <v>0.0008182938530423465</v>
+        <v>0.0008217948767368256</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05856368038660165</v>
+        <v>0.06736938871658182</v>
       </c>
       <c r="K9">
-        <v>0.8616552971769664</v>
+        <v>1.192907726893935</v>
       </c>
       <c r="L9">
-        <v>0.3174710131716552</v>
+        <v>0.2323122177995316</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.116603197426983</v>
+        <v>0.9912881973196521</v>
       </c>
       <c r="O9">
-        <v>1.571400574626253</v>
+        <v>2.458543080360926</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.435721623905124</v>
+        <v>1.755259660704922</v>
       </c>
       <c r="C10">
-        <v>0.4977563711271671</v>
+        <v>0.1002074722307853</v>
       </c>
       <c r="D10">
-        <v>0.009755564665860916</v>
+        <v>0.1180406342764542</v>
       </c>
       <c r="E10">
-        <v>0.02902825449946889</v>
+        <v>0.06820663704283447</v>
       </c>
       <c r="F10">
-        <v>2.431807807913657</v>
+        <v>1.015329172604154</v>
       </c>
       <c r="G10">
-        <v>0.0008061022848607536</v>
+        <v>0.0008157004769698946</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05775435517869099</v>
+        <v>0.06730716970100303</v>
       </c>
       <c r="K10">
-        <v>1.026763059474121</v>
+        <v>1.418696012091573</v>
       </c>
       <c r="L10">
-        <v>0.3682458683259853</v>
+        <v>0.2680496544032991</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.026816239283825</v>
+        <v>0.9159902327645426</v>
       </c>
       <c r="O10">
-        <v>1.728628815572421</v>
+        <v>2.533780782747868</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.756742156225698</v>
+        <v>1.879325442399619</v>
       </c>
       <c r="C11">
-        <v>0.5362151358721974</v>
+        <v>0.1026490783725933</v>
       </c>
       <c r="D11">
-        <v>0.01036595976723831</v>
+        <v>0.1253420287050488</v>
       </c>
       <c r="E11">
-        <v>0.02936897877274092</v>
+        <v>0.07042884614435252</v>
       </c>
       <c r="F11">
-        <v>2.539209804403555</v>
+        <v>1.038282090254853</v>
       </c>
       <c r="G11">
-        <v>0.0008006522276781566</v>
+        <v>0.0008130005256472651</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05747738559043825</v>
+        <v>0.0673744506961782</v>
       </c>
       <c r="K11">
-        <v>1.103549988719763</v>
+        <v>1.522072418807198</v>
       </c>
       <c r="L11">
-        <v>0.3919519436213221</v>
+        <v>0.2845386040890361</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9883224586094883</v>
+        <v>0.883193263848109</v>
       </c>
       <c r="O11">
-        <v>1.804920973361519</v>
+        <v>2.573166105489889</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.879521952549794</v>
+        <v>1.926482585142622</v>
       </c>
       <c r="C12">
-        <v>0.5509002987000144</v>
+        <v>0.1035752975818127</v>
       </c>
       <c r="D12">
-        <v>0.01059989791088611</v>
+        <v>0.128119653327829</v>
       </c>
       <c r="E12">
-        <v>0.02950288246821131</v>
+        <v>0.07128241258524071</v>
       </c>
       <c r="F12">
-        <v>2.580902645017304</v>
+        <v>1.047262197069955</v>
       </c>
       <c r="G12">
-        <v>0.0007986004344724922</v>
+        <v>0.0008119881310006975</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05738647661691232</v>
+        <v>0.067414297634663</v>
       </c>
       <c r="K12">
-        <v>1.13290661902046</v>
+        <v>1.561330014363676</v>
       </c>
       <c r="L12">
-        <v>0.4010280988116648</v>
+        <v>0.2908191580496151</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9741086584867773</v>
+        <v>0.8709915488378304</v>
       </c>
       <c r="O12">
-        <v>1.834578475747648</v>
+        <v>2.588870897916507</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.8530223327665</v>
+        <v>1.916318279447694</v>
       </c>
       <c r="C13">
-        <v>0.5477318455278919</v>
+        <v>0.1033757418878238</v>
       </c>
       <c r="D13">
-        <v>0.01054938232955038</v>
+        <v>0.1275208577465605</v>
       </c>
       <c r="E13">
-        <v>0.0294738219137809</v>
+        <v>0.07109803401959525</v>
       </c>
       <c r="F13">
-        <v>2.571876050462038</v>
+        <v>1.045315049462943</v>
       </c>
       <c r="G13">
-        <v>0.0007990418202648402</v>
+        <v>0.0008122057292553414</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05740541935336552</v>
+        <v>0.06740506645376243</v>
       </c>
       <c r="K13">
-        <v>1.126571085608134</v>
+        <v>1.552869981730197</v>
       </c>
       <c r="L13">
-        <v>0.3990687754151878</v>
+        <v>0.2894648495107504</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9771532848543956</v>
+        <v>0.8736095817276732</v>
       </c>
       <c r="O13">
-        <v>1.828155677757579</v>
+        <v>2.5854526285178</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.766817982044756</v>
+        <v>1.883201437917478</v>
       </c>
       <c r="C14">
-        <v>0.5374207368483894</v>
+        <v>0.1027252443868321</v>
       </c>
       <c r="D14">
-        <v>0.01038514694585402</v>
+        <v>0.1255702838200392</v>
       </c>
       <c r="E14">
-        <v>0.02937989553846698</v>
+        <v>0.07049882376778882</v>
       </c>
       <c r="F14">
-        <v>2.542618758048746</v>
+        <v>1.039015003830841</v>
       </c>
       <c r="G14">
-        <v>0.0008004831951086529</v>
+        <v>0.0008129170368767099</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05746962115816245</v>
+        <v>0.06737743723438427</v>
       </c>
       <c r="K14">
-        <v>1.105959352159317</v>
+        <v>1.525299842535247</v>
       </c>
       <c r="L14">
-        <v>0.3926965851258899</v>
+        <v>0.2850545574306693</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9871456536847418</v>
+        <v>0.8821850069315085</v>
       </c>
       <c r="O14">
-        <v>1.807345035745399</v>
+        <v>2.574442017558994</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.714178702721824</v>
+        <v>1.862939978810289</v>
       </c>
       <c r="C15">
-        <v>0.531121336778881</v>
+        <v>0.102327018276533</v>
       </c>
       <c r="D15">
-        <v>0.01028492764441324</v>
+        <v>0.124377193318054</v>
       </c>
       <c r="E15">
-        <v>0.0293230075317279</v>
+        <v>0.07013338205121755</v>
       </c>
       <c r="F15">
-        <v>2.52483431436373</v>
+        <v>1.035194144126592</v>
       </c>
       <c r="G15">
-        <v>0.0008013675892283301</v>
+        <v>0.0008133540259185577</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05751079342638477</v>
+        <v>0.06736240401429328</v>
       </c>
       <c r="K15">
-        <v>1.093371605742831</v>
+        <v>1.508427301321262</v>
       </c>
       <c r="L15">
-        <v>0.3888067194647249</v>
+        <v>0.282357984621612</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9933143236199697</v>
+        <v>0.8874663215055021</v>
       </c>
       <c r="O15">
-        <v>1.794700421292404</v>
+        <v>2.567802131807525</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.414903400734715</v>
+        <v>1.747175179728657</v>
       </c>
       <c r="C16">
-        <v>0.4952589305086406</v>
+        <v>0.1000481195490366</v>
       </c>
       <c r="D16">
-        <v>0.009716036938799633</v>
+        <v>0.1175651952859056</v>
       </c>
       <c r="E16">
-        <v>0.02900665340337127</v>
+        <v>0.06806306091564807</v>
       </c>
       <c r="F16">
-        <v>2.424925733817162</v>
+        <v>1.013868494158885</v>
       </c>
       <c r="G16">
-        <v>0.0008064602421835918</v>
+        <v>0.000815878349126598</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05777436233656985</v>
+        <v>0.06730474860433233</v>
       </c>
       <c r="K16">
-        <v>1.021781760990834</v>
+        <v>1.411954801773248</v>
       </c>
       <c r="L16">
-        <v>0.3667098338273007</v>
+        <v>0.2669769971821694</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.029381269614483</v>
+        <v>0.9181636010317709</v>
       </c>
       <c r="O16">
-        <v>1.723745671301245</v>
+        <v>2.531314753834238</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.233300012583356</v>
+        <v>1.676448788674264</v>
       </c>
       <c r="C17">
-        <v>0.4734539916691176</v>
+        <v>0.09865267429095326</v>
       </c>
       <c r="D17">
-        <v>0.0093714773686564</v>
+        <v>0.1134078022206495</v>
       </c>
       <c r="E17">
-        <v>0.02882094667831936</v>
+        <v>0.0668137380687881</v>
       </c>
       <c r="F17">
-        <v>2.365336795500326</v>
+        <v>1.001279979526217</v>
       </c>
       <c r="G17">
-        <v>0.0008096077897603838</v>
+        <v>0.0008174452138154696</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.057959994735306</v>
+        <v>0.06729429232514406</v>
       </c>
       <c r="K17">
-        <v>0.978319198530798</v>
+        <v>1.352952979614258</v>
       </c>
       <c r="L17">
-        <v>0.3533178599635676</v>
+        <v>0.2576028514260287</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.052126138812284</v>
+        <v>0.9373741953284389</v>
       </c>
       <c r="O17">
-        <v>1.6814938424003</v>
+        <v>2.51028589142291</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.129528984552849</v>
+        <v>1.635869545781674</v>
       </c>
       <c r="C18">
-        <v>0.4609781613949906</v>
+        <v>0.09785090643597982</v>
       </c>
       <c r="D18">
-        <v>0.009174774305330757</v>
+        <v>0.111024161684</v>
       </c>
       <c r="E18">
-        <v>0.02871711511762243</v>
+        <v>0.06610257220850002</v>
       </c>
       <c r="F18">
-        <v>2.331654304280519</v>
+        <v>0.9942152926902992</v>
       </c>
       <c r="G18">
-        <v>0.0008114273231339209</v>
+        <v>0.0008183532746604457</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05807529294920499</v>
+        <v>0.06729723542336785</v>
       </c>
       <c r="K18">
-        <v>0.9534761909775824</v>
+        <v>1.319078205553808</v>
       </c>
       <c r="L18">
-        <v>0.3456716401107371</v>
+        <v>0.2522327052286215</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.065428004002733</v>
+        <v>0.9485601788195375</v>
       </c>
       <c r="O18">
-        <v>1.657635132464094</v>
+        <v>2.498673177826333</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.094506571391037</v>
+        <v>1.622146811945129</v>
       </c>
       <c r="C19">
-        <v>0.4567648093835714</v>
+        <v>0.0975795798243837</v>
       </c>
       <c r="D19">
-        <v>0.009108414310425417</v>
+        <v>0.1102183729846757</v>
       </c>
       <c r="E19">
-        <v>0.02868246325466828</v>
+        <v>0.06586303670301419</v>
       </c>
       <c r="F19">
-        <v>2.3203484897127</v>
+        <v>0.9918529949268304</v>
       </c>
       <c r="G19">
-        <v>0.0008120450080388878</v>
+        <v>0.0008186619151920941</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05811577077865593</v>
+        <v>0.06729975193967519</v>
       </c>
       <c r="K19">
-        <v>0.9450904010628562</v>
+        <v>1.307618893906636</v>
       </c>
       <c r="L19">
-        <v>0.3430921270478962</v>
+        <v>0.2504180838520824</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.069968791477621</v>
+        <v>0.9523707687263201</v>
       </c>
       <c r="O19">
-        <v>1.649630796499679</v>
+        <v>2.494822760500995</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.252560284368144</v>
+        <v>1.683967168398965</v>
       </c>
       <c r="C20">
-        <v>0.4757682229773081</v>
+        <v>0.09880113120959777</v>
       </c>
       <c r="D20">
-        <v>0.00940800001462172</v>
+        <v>0.1138495716433283</v>
       </c>
       <c r="E20">
-        <v>0.0288404048185793</v>
+        <v>0.06694595878456155</v>
       </c>
       <c r="F20">
-        <v>2.371618180466058</v>
+        <v>1.002601718214834</v>
       </c>
       <c r="G20">
-        <v>0.0008092717935233345</v>
+        <v>0.0008172777131702263</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05793934535806144</v>
+        <v>0.06729447397306387</v>
       </c>
       <c r="K20">
-        <v>0.9829295077662721</v>
+        <v>1.359227347751869</v>
       </c>
       <c r="L20">
-        <v>0.3547375312125496</v>
+        <v>0.2585984856280135</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.049682007241785</v>
+        <v>0.9353150027699666</v>
       </c>
       <c r="O20">
-        <v>1.685945165674752</v>
+        <v>2.512474168081923</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.792103935949683</v>
+        <v>1.892923708422757</v>
       </c>
       <c r="C21">
-        <v>0.54044589344889</v>
+        <v>0.1029162643522454</v>
       </c>
       <c r="D21">
-        <v>0.01043330677687848</v>
+        <v>0.1261428599954684</v>
       </c>
       <c r="E21">
-        <v>0.02940734908681719</v>
+        <v>0.07067449333545994</v>
       </c>
       <c r="F21">
-        <v>2.551183680184423</v>
+        <v>1.04085750635366</v>
       </c>
       <c r="G21">
-        <v>0.0008000595170591876</v>
+        <v>0.000812707839967057</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05745037699418276</v>
+        <v>0.06738515746284435</v>
       </c>
       <c r="K21">
-        <v>1.112005622279199</v>
+        <v>1.533394712442544</v>
       </c>
       <c r="L21">
-        <v>0.3945654606222178</v>
+        <v>0.2863489485904864</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9842005895146571</v>
+        <v>0.8796602168403691</v>
       </c>
       <c r="O21">
-        <v>1.813436105206179</v>
+        <v>2.577654246354768</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.151902515299753</v>
+        <v>2.030525910443771</v>
       </c>
       <c r="C22">
-        <v>0.5834362018292154</v>
+        <v>0.1056154359271986</v>
       </c>
       <c r="D22">
-        <v>0.01111997430034251</v>
+        <v>0.1342520628003143</v>
       </c>
       <c r="E22">
-        <v>0.02980647697625649</v>
+        <v>0.07318196907802133</v>
       </c>
       <c r="F22">
-        <v>2.674556075806322</v>
+        <v>1.067549662047512</v>
       </c>
       <c r="G22">
-        <v>0.0007941078949244646</v>
+        <v>0.0008097793578033144</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05721272247826903</v>
+        <v>0.06752849690144558</v>
       </c>
       <c r="K22">
-        <v>1.19801167160999</v>
+        <v>1.647879366272662</v>
       </c>
       <c r="L22">
-        <v>0.4211797828073003</v>
+        <v>0.3047001492523833</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9435339680645072</v>
+        <v>0.8445602835754826</v>
       </c>
       <c r="O22">
-        <v>1.901275974410225</v>
+        <v>2.624885264415099</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.959157892440999</v>
+        <v>1.956983063578321</v>
       </c>
       <c r="C23">
-        <v>0.5604186729736682</v>
+        <v>0.1041738442104716</v>
       </c>
       <c r="D23">
-        <v>0.01075179064030252</v>
+        <v>0.1299168142219145</v>
       </c>
       <c r="E23">
-        <v>0.02959073289358116</v>
+        <v>0.07183698212273626</v>
       </c>
       <c r="F23">
-        <v>2.60812073387406</v>
+        <v>1.053142725557024</v>
       </c>
       <c r="G23">
-        <v>0.0007972786968814717</v>
+        <v>0.0008113371558472596</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05733175956156344</v>
+        <v>0.06744408465218754</v>
       </c>
       <c r="K23">
-        <v>1.151944313998413</v>
+        <v>1.58671123286021</v>
       </c>
       <c r="L23">
-        <v>0.4069175332403461</v>
+        <v>0.2948850077744822</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9650346922556992</v>
+        <v>0.8631743355981065</v>
       </c>
       <c r="O23">
-        <v>1.853951456704877</v>
+        <v>2.599236466538713</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.243850748765055</v>
+        <v>1.680567854092317</v>
       </c>
       <c r="C24">
-        <v>0.4747217731674596</v>
+        <v>0.09873401232620438</v>
       </c>
       <c r="D24">
-        <v>0.009391483836200365</v>
+        <v>0.1136498275203479</v>
       </c>
       <c r="E24">
-        <v>0.02883159867734264</v>
+        <v>0.06688615977672185</v>
       </c>
       <c r="F24">
-        <v>2.368776580247143</v>
+        <v>1.002003623825701</v>
       </c>
       <c r="G24">
-        <v>0.0008094236662509765</v>
+        <v>0.0008173534176176894</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05794865429410834</v>
+        <v>0.06729436400540578</v>
       </c>
       <c r="K24">
-        <v>0.9808447406124401</v>
+        <v>1.356390563312999</v>
       </c>
       <c r="L24">
-        <v>0.3540955336126927</v>
+        <v>0.2581482999195828</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.05078629847781</v>
+        <v>0.9362455234327873</v>
       </c>
       <c r="O24">
-        <v>1.683931381560939</v>
+        <v>2.511483365902365</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.497864055001003</v>
+        <v>1.386187836066</v>
       </c>
       <c r="C25">
-        <v>0.3847387795798056</v>
+        <v>0.09289796115655236</v>
       </c>
       <c r="D25">
-        <v>0.007979305716776963</v>
+        <v>0.09638932923526511</v>
       </c>
       <c r="E25">
-        <v>0.02812581836710049</v>
+        <v>0.06182684591894727</v>
       </c>
       <c r="F25">
-        <v>2.132877170634742</v>
+        <v>0.9535035530876499</v>
       </c>
       <c r="G25">
-        <v>0.0008228794393658092</v>
+        <v>0.000824105935428825</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05893734456106614</v>
+        <v>0.06747311462556738</v>
       </c>
       <c r="K25">
-        <v>0.8021116242930617</v>
+        <v>1.110248974674107</v>
       </c>
       <c r="L25">
-        <v>0.2992407467836387</v>
+        <v>0.219336794281503</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.151601556427977</v>
+        <v>1.020256364616579</v>
       </c>
       <c r="O25">
-        <v>1.517231242673773</v>
+        <v>2.435105015866952</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_18/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.171950081042439</v>
+        <v>0.9953235316507403</v>
       </c>
       <c r="C2">
-        <v>0.08861730483006625</v>
+        <v>0.119732885458177</v>
       </c>
       <c r="D2">
-        <v>0.08388745182205071</v>
+        <v>0.1166433936743516</v>
       </c>
       <c r="E2">
-        <v>0.05831933137805478</v>
+        <v>0.06335036352613876</v>
       </c>
       <c r="F2">
-        <v>0.9229056605191133</v>
+        <v>0.6283904225413863</v>
       </c>
       <c r="G2">
-        <v>0.0008293185564923027</v>
+        <v>0.3789623456333686</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.004191227675003795</v>
       </c>
       <c r="J2">
-        <v>0.06787603572789536</v>
+        <v>0.344706930788611</v>
       </c>
       <c r="K2">
-        <v>0.9304199162912425</v>
+        <v>0.3751006237273522</v>
       </c>
       <c r="L2">
-        <v>0.1913452486315919</v>
+        <v>0.06061106115768133</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8534179217035671</v>
       </c>
       <c r="N2">
-        <v>1.086307814935909</v>
+        <v>0.2076205318358291</v>
       </c>
       <c r="O2">
-        <v>2.392924739056582</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.9126847393523647</v>
+      </c>
+      <c r="Q2">
+        <v>1.471820298214695</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.027990895461727</v>
+        <v>0.8683426304280317</v>
       </c>
       <c r="C3">
-        <v>0.08572169982807054</v>
+        <v>0.113836002690654</v>
       </c>
       <c r="D3">
-        <v>0.07552598039992375</v>
+        <v>0.106040827357667</v>
       </c>
       <c r="E3">
-        <v>0.05606695481377599</v>
+        <v>0.06088885124436594</v>
       </c>
       <c r="F3">
-        <v>0.9050744434410731</v>
+        <v>0.6167830476106317</v>
       </c>
       <c r="G3">
-        <v>0.0008330081955245725</v>
+        <v>0.373775476214135</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.005718599006434122</v>
       </c>
       <c r="J3">
-        <v>0.06830850192865157</v>
+        <v>0.3466433564641562</v>
       </c>
       <c r="K3">
-        <v>0.8091641496239674</v>
+        <v>0.3783835844212966</v>
       </c>
       <c r="L3">
-        <v>0.1726872010021836</v>
+        <v>0.06084097802822797</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7436080279945259</v>
       </c>
       <c r="N3">
-        <v>1.133563288032041</v>
+        <v>0.1872496752741171</v>
       </c>
       <c r="O3">
-        <v>2.372342761944651</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.9402878891100421</v>
+      </c>
+      <c r="Q3">
+        <v>1.464597042886595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9401054071255999</v>
+        <v>0.7900896483631072</v>
       </c>
       <c r="C4">
-        <v>0.08394506531276846</v>
+        <v>0.1102393508249335</v>
       </c>
       <c r="D4">
-        <v>0.07044139994682297</v>
+        <v>0.09960574913365861</v>
       </c>
       <c r="E4">
-        <v>0.05474209963573351</v>
+        <v>0.05941842796402597</v>
       </c>
       <c r="F4">
-        <v>0.8954715890566192</v>
+        <v>0.6102836992010552</v>
       </c>
       <c r="G4">
-        <v>0.0008353532007246716</v>
+        <v>0.3710289075584399</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.006860930734196025</v>
       </c>
       <c r="J4">
-        <v>0.06864962253168905</v>
+        <v>0.3481316359033713</v>
       </c>
       <c r="K4">
-        <v>0.7349382391051904</v>
+        <v>0.3807118922431272</v>
       </c>
       <c r="L4">
-        <v>0.1613689234895404</v>
+        <v>0.0610145846477721</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6760945549746253</v>
       </c>
       <c r="N4">
-        <v>1.163768519315384</v>
+        <v>0.1749458770279517</v>
       </c>
       <c r="O4">
-        <v>2.363417755650062</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.9579799071617821</v>
+      </c>
+      <c r="Q4">
+        <v>1.461709810480457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9044049633531586</v>
+        <v>0.7575124044700772</v>
       </c>
       <c r="C5">
-        <v>0.08322121322116516</v>
+        <v>0.1089139358741136</v>
       </c>
       <c r="D5">
-        <v>0.06838108502460472</v>
+        <v>0.09701812922051545</v>
       </c>
       <c r="E5">
-        <v>0.05421635524620072</v>
+        <v>0.05880693492446376</v>
       </c>
       <c r="F5">
-        <v>0.8918844577132106</v>
+        <v>0.6074695336135676</v>
       </c>
       <c r="G5">
-        <v>0.0008363291061597097</v>
+        <v>0.3697554221415231</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.007456697682428626</v>
       </c>
       <c r="J5">
-        <v>0.06880720916508665</v>
+        <v>0.3486774002539121</v>
       </c>
       <c r="K5">
-        <v>0.7047368517183514</v>
+        <v>0.3814952413544148</v>
       </c>
       <c r="L5">
-        <v>0.1567891107921042</v>
+        <v>0.06106368335433032</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6485589523968542</v>
       </c>
       <c r="N5">
-        <v>1.176371021502765</v>
+        <v>0.1701165989768967</v>
       </c>
       <c r="O5">
-        <v>2.360681156796375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.9654181839465323</v>
+      </c>
+      <c r="Q5">
+        <v>1.460076858529433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8984834080255837</v>
+        <v>0.7513459192801406</v>
       </c>
       <c r="C6">
-        <v>0.08310102161028965</v>
+        <v>0.1088606197148536</v>
       </c>
       <c r="D6">
-        <v>0.06803965690330926</v>
+        <v>0.096609886135262</v>
       </c>
       <c r="E6">
-        <v>0.05412989681504676</v>
+        <v>0.05867864395878186</v>
       </c>
       <c r="F6">
-        <v>0.8913081658858459</v>
+        <v>0.6066212997326019</v>
       </c>
       <c r="G6">
-        <v>0.0008364923886742706</v>
+        <v>0.3692314546009143</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.007664331306707517</v>
       </c>
       <c r="J6">
-        <v>0.06883448613520216</v>
+        <v>0.3486080192460435</v>
       </c>
       <c r="K6">
-        <v>0.6997244339661961</v>
+        <v>0.3813337815457594</v>
       </c>
       <c r="L6">
-        <v>0.1560305361274033</v>
+        <v>0.06103600195006997</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6439886583161325</v>
       </c>
       <c r="N6">
-        <v>1.178481231200918</v>
+        <v>0.1694838181388221</v>
       </c>
       <c r="O6">
-        <v>2.360280190184852</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.9667210664623305</v>
+      </c>
+      <c r="Q6">
+        <v>1.458807699525991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9396234959905314</v>
+        <v>0.787588276106618</v>
       </c>
       <c r="C7">
-        <v>0.08393530284956086</v>
+        <v>0.110677748184898</v>
       </c>
       <c r="D7">
-        <v>0.07041356741207494</v>
+        <v>0.09962633986312142</v>
       </c>
       <c r="E7">
-        <v>0.05473495259437833</v>
+        <v>0.0593353792053648</v>
       </c>
       <c r="F7">
-        <v>0.8954219071224827</v>
+        <v>0.6091803461714278</v>
       </c>
       <c r="G7">
-        <v>0.0008353662795487478</v>
+        <v>0.3701410042807751</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.007141306062920627</v>
       </c>
       <c r="J7">
-        <v>0.06865167313461029</v>
+        <v>0.3476905438189135</v>
       </c>
       <c r="K7">
-        <v>0.7345307586990089</v>
+        <v>0.3799145530858219</v>
       </c>
       <c r="L7">
-        <v>0.1613070298429449</v>
+        <v>0.06091617211305156</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.6757328492090124</v>
       </c>
       <c r="N7">
-        <v>1.163937299464791</v>
+        <v>0.1753347971025576</v>
       </c>
       <c r="O7">
-        <v>2.363377245813382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.9582456271629525</v>
+      </c>
+      <c r="Q7">
+        <v>1.458901950756825</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.122199457866316</v>
+        <v>0.9488422620318602</v>
       </c>
       <c r="C8">
-        <v>0.08761852123461011</v>
+        <v>0.1183079703946817</v>
       </c>
       <c r="D8">
-        <v>0.08099371243276465</v>
+        <v>0.1130449795099793</v>
       </c>
       <c r="E8">
-        <v>0.0575303614934537</v>
+        <v>0.0623938563827835</v>
       </c>
       <c r="F8">
-        <v>0.9164706282884225</v>
+        <v>0.6228492731292476</v>
       </c>
       <c r="G8">
-        <v>0.000830574413066966</v>
+        <v>0.3759322287421014</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.005001409080756858</v>
       </c>
       <c r="J8">
-        <v>0.06800919819619367</v>
+        <v>0.3447226338304858</v>
       </c>
       <c r="K8">
-        <v>0.8885575980417286</v>
+        <v>0.3751048802838248</v>
       </c>
       <c r="L8">
-        <v>0.1848819924387186</v>
+        <v>0.06055332757047971</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.815582175249574</v>
       </c>
       <c r="N8">
-        <v>1.102351004918394</v>
+        <v>0.2011555939947698</v>
       </c>
       <c r="O8">
-        <v>2.385037154242667</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.9223143300280796</v>
+      </c>
+      <c r="Q8">
+        <v>1.46533281471055</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.484912902304075</v>
+        <v>1.266626745966278</v>
       </c>
       <c r="C9">
-        <v>0.0948606152758984</v>
+        <v>0.1326791812010413</v>
       </c>
       <c r="D9">
-        <v>0.1021689097158003</v>
+        <v>0.1398906766780641</v>
       </c>
       <c r="E9">
-        <v>0.06349573803805697</v>
+        <v>0.06886174767844366</v>
       </c>
       <c r="F9">
-        <v>0.9690071713092365</v>
+        <v>0.656749567060487</v>
       </c>
       <c r="G9">
-        <v>0.0008217948767368256</v>
+        <v>0.3924912516964341</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.002095118862983192</v>
       </c>
       <c r="J9">
-        <v>0.06736938871658182</v>
+        <v>0.3421443829888702</v>
       </c>
       <c r="K9">
-        <v>1.192907726893935</v>
+        <v>0.3696656293361116</v>
       </c>
       <c r="L9">
-        <v>0.2323122177995316</v>
+        <v>0.0602788995656951</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.089293056720862</v>
       </c>
       <c r="N9">
-        <v>0.9912881973196521</v>
+        <v>0.2527062726786937</v>
       </c>
       <c r="O9">
-        <v>2.458543080360926</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.8575447822533917</v>
+      </c>
+      <c r="Q9">
+        <v>1.495700775129237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.755259660704922</v>
+        <v>1.497892096734006</v>
       </c>
       <c r="C10">
-        <v>0.1002074722307853</v>
+        <v>0.1437024254973451</v>
       </c>
       <c r="D10">
-        <v>0.1180406342764542</v>
+        <v>0.1600805923498712</v>
       </c>
       <c r="E10">
-        <v>0.06820663704283447</v>
+        <v>0.07379788271877175</v>
       </c>
       <c r="F10">
-        <v>1.015329172604154</v>
+        <v>0.6846155491401333</v>
       </c>
       <c r="G10">
-        <v>0.0008157004769698946</v>
+        <v>0.4067091302155035</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001247279387346367</v>
       </c>
       <c r="J10">
-        <v>0.06730716970100303</v>
+        <v>0.3416305632463121</v>
       </c>
       <c r="K10">
-        <v>1.418696012091573</v>
+        <v>0.3669542267743608</v>
       </c>
       <c r="L10">
-        <v>0.2680496544032991</v>
+        <v>0.06019450080832556</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.290375580915708</v>
       </c>
       <c r="N10">
-        <v>0.9159902327645426</v>
+        <v>0.2920312650590802</v>
       </c>
       <c r="O10">
-        <v>2.533780782747868</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.8140586613904084</v>
+      </c>
+      <c r="Q10">
+        <v>1.525215894544672</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.879325442399619</v>
+        <v>1.599391845062627</v>
       </c>
       <c r="C11">
-        <v>0.1026490783725933</v>
+        <v>0.1495886081405828</v>
       </c>
       <c r="D11">
-        <v>0.1253420287050488</v>
+        <v>0.1694633342456626</v>
       </c>
       <c r="E11">
-        <v>0.07042884614435252</v>
+        <v>0.07597207349245494</v>
       </c>
       <c r="F11">
-        <v>1.038282090254853</v>
+        <v>0.6963971381743761</v>
       </c>
       <c r="G11">
-        <v>0.0008130005256472651</v>
+        <v>0.4123691539278695</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001547381201837617</v>
       </c>
       <c r="J11">
-        <v>0.0673744506961782</v>
+        <v>0.3410557401288372</v>
       </c>
       <c r="K11">
-        <v>1.522072418807198</v>
+        <v>0.364828551748154</v>
       </c>
       <c r="L11">
-        <v>0.2845386040890361</v>
+        <v>0.06003579087935762</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.381923930829174</v>
       </c>
       <c r="N11">
-        <v>0.883193263848109</v>
+        <v>0.3109776218127251</v>
       </c>
       <c r="O11">
-        <v>2.573166105489889</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.7957031685635414</v>
+      </c>
+      <c r="Q11">
+        <v>1.536207522000268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.926482585142622</v>
+        <v>1.639653454465389</v>
       </c>
       <c r="C12">
-        <v>0.1035752975818127</v>
+        <v>0.1514046895515335</v>
       </c>
       <c r="D12">
-        <v>0.128119653327829</v>
+        <v>0.1729850989152055</v>
       </c>
       <c r="E12">
-        <v>0.07128241258524071</v>
+        <v>0.07686869972705068</v>
       </c>
       <c r="F12">
-        <v>1.047262197069955</v>
+        <v>0.7019027077267666</v>
       </c>
       <c r="G12">
-        <v>0.0008119881310006975</v>
+        <v>0.4153520661431003</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001488368151960628</v>
       </c>
       <c r="J12">
-        <v>0.067414297634663</v>
+        <v>0.3412739818922859</v>
       </c>
       <c r="K12">
-        <v>1.561330014363676</v>
+        <v>0.3647670544598327</v>
       </c>
       <c r="L12">
-        <v>0.2908191580496151</v>
+        <v>0.06006525951175945</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.416605399588775</v>
       </c>
       <c r="N12">
-        <v>0.8709915488378304</v>
+        <v>0.317800047262665</v>
       </c>
       <c r="O12">
-        <v>2.588870897916507</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.7886351534971823</v>
+      </c>
+      <c r="Q12">
+        <v>1.543061733251818</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.916318279447694</v>
+        <v>1.631357274874631</v>
       </c>
       <c r="C13">
-        <v>0.1033757418878238</v>
+        <v>0.150926923203258</v>
       </c>
       <c r="D13">
-        <v>0.1275208577465605</v>
+        <v>0.1722162481958094</v>
       </c>
       <c r="E13">
-        <v>0.07109803401959525</v>
+        <v>0.07668843228695366</v>
       </c>
       <c r="F13">
-        <v>1.045315049462943</v>
+        <v>0.7008958589683303</v>
       </c>
       <c r="G13">
-        <v>0.0008122057292553414</v>
+        <v>0.4148558513337832</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001453355985896465</v>
       </c>
       <c r="J13">
-        <v>0.06740506645376243</v>
+        <v>0.3413007691663239</v>
       </c>
       <c r="K13">
-        <v>1.552869981730197</v>
+        <v>0.3649149494886288</v>
       </c>
       <c r="L13">
-        <v>0.2894648495107504</v>
+        <v>0.06007553018020317</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.409135078675547</v>
       </c>
       <c r="N13">
-        <v>0.8736095817276732</v>
+        <v>0.3162481134222332</v>
       </c>
       <c r="O13">
-        <v>2.5854526285178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.790097582812372</v>
+      </c>
+      <c r="Q13">
+        <v>1.542050136331795</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.883201437917478</v>
+        <v>1.602863349918863</v>
       </c>
       <c r="C14">
-        <v>0.1027252443868321</v>
+        <v>0.1497012176565917</v>
       </c>
       <c r="D14">
-        <v>0.1255702838200392</v>
+        <v>0.1697486441292995</v>
       </c>
       <c r="E14">
-        <v>0.07049882376778882</v>
+        <v>0.07605128290821384</v>
       </c>
       <c r="F14">
-        <v>1.039015003830841</v>
+        <v>0.6969259427325625</v>
       </c>
       <c r="G14">
-        <v>0.0008129170368767099</v>
+        <v>0.4126765791577469</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001521875652538363</v>
       </c>
       <c r="J14">
-        <v>0.06737743723438427</v>
+        <v>0.3411049951642582</v>
       </c>
       <c r="K14">
-        <v>1.525299842535247</v>
+        <v>0.3648806466053429</v>
       </c>
       <c r="L14">
-        <v>0.2850545574306693</v>
+        <v>0.06004527038639296</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.384776717865009</v>
       </c>
       <c r="N14">
-        <v>0.8821850069315085</v>
+        <v>0.3115037652539598</v>
       </c>
       <c r="O14">
-        <v>2.574442017558994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.7950963107840074</v>
+      </c>
+      <c r="Q14">
+        <v>1.536968490969883</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.862939978810289</v>
+        <v>1.584671933517853</v>
       </c>
       <c r="C15">
-        <v>0.102327018276533</v>
+        <v>0.1491215220232149</v>
       </c>
       <c r="D15">
-        <v>0.124377193318054</v>
+        <v>0.1682583232367278</v>
       </c>
       <c r="E15">
-        <v>0.07013338205121755</v>
+        <v>0.07563607846305587</v>
       </c>
       <c r="F15">
-        <v>1.035194144126592</v>
+        <v>0.6941473611539806</v>
       </c>
       <c r="G15">
-        <v>0.0008133540259185577</v>
+        <v>0.4110576810009405</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001664094636872449</v>
       </c>
       <c r="J15">
-        <v>0.06736240401429328</v>
+        <v>0.3408420338821827</v>
       </c>
       <c r="K15">
-        <v>1.508427301321262</v>
+        <v>0.3645969181040378</v>
       </c>
       <c r="L15">
-        <v>0.282357984621612</v>
+        <v>0.05999423913730695</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.369859458034256</v>
       </c>
       <c r="N15">
-        <v>0.8874663215055021</v>
+        <v>0.3087624022536488</v>
       </c>
       <c r="O15">
-        <v>2.567802131807525</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.7982802186173679</v>
+      </c>
+      <c r="Q15">
+        <v>1.532953900461251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.747175179728657</v>
+        <v>1.485074838555647</v>
       </c>
       <c r="C16">
-        <v>0.1000481195490366</v>
+        <v>0.1447363238782486</v>
       </c>
       <c r="D16">
-        <v>0.1175651952859056</v>
+        <v>0.1596296218489925</v>
       </c>
       <c r="E16">
-        <v>0.06806306091564807</v>
+        <v>0.07343819953433695</v>
       </c>
       <c r="F16">
-        <v>1.013868494158885</v>
+        <v>0.6807964806278335</v>
       </c>
       <c r="G16">
-        <v>0.000815878349126598</v>
+        <v>0.4038527557626921</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001981602416146089</v>
       </c>
       <c r="J16">
-        <v>0.06730474860433233</v>
+        <v>0.3404056800072652</v>
       </c>
       <c r="K16">
-        <v>1.411954801773248</v>
+        <v>0.3648148754014997</v>
       </c>
       <c r="L16">
-        <v>0.2669769971821694</v>
+        <v>0.05992490517901672</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.284402172071395</v>
       </c>
       <c r="N16">
-        <v>0.9181636010317709</v>
+        <v>0.292133011061054</v>
       </c>
       <c r="O16">
-        <v>2.531314753834238</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.8161226199493363</v>
+      </c>
+      <c r="Q16">
+        <v>1.516581461527295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.676448788674264</v>
+        <v>1.423955352609767</v>
       </c>
       <c r="C17">
-        <v>0.09865267429095326</v>
+        <v>0.1420577111140133</v>
       </c>
       <c r="D17">
-        <v>0.1134078022206495</v>
+        <v>0.1543640007782159</v>
       </c>
       <c r="E17">
-        <v>0.0668137380687881</v>
+        <v>0.07210441895890796</v>
       </c>
       <c r="F17">
-        <v>1.001279979526217</v>
+        <v>0.6728365401174301</v>
       </c>
       <c r="G17">
-        <v>0.0008174452138154696</v>
+        <v>0.3996002448216629</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.002256548952979998</v>
       </c>
       <c r="J17">
-        <v>0.06729429232514406</v>
+        <v>0.340239891014491</v>
       </c>
       <c r="K17">
-        <v>1.352952979614258</v>
+        <v>0.3650600149120748</v>
       </c>
       <c r="L17">
-        <v>0.2576028514260287</v>
+        <v>0.05989318835565172</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.231999958064335</v>
       </c>
       <c r="N17">
-        <v>0.9373741953284389</v>
+        <v>0.2820059843051581</v>
       </c>
       <c r="O17">
-        <v>2.51028589142291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.8272988177982477</v>
+      </c>
+      <c r="Q17">
+        <v>1.507103925633643</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.635869545781674</v>
+        <v>1.390656526258056</v>
       </c>
       <c r="C18">
-        <v>0.09785090643597982</v>
+        <v>0.1400899998982581</v>
       </c>
       <c r="D18">
-        <v>0.111024161684</v>
+        <v>0.1512967140130286</v>
       </c>
       <c r="E18">
-        <v>0.06610257220850002</v>
+        <v>0.07140862794953762</v>
       </c>
       <c r="F18">
-        <v>0.9942152926902992</v>
+        <v>0.6692688031126224</v>
       </c>
       <c r="G18">
-        <v>0.0008183532746604457</v>
+        <v>0.3979701692532771</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.002177544702311351</v>
       </c>
       <c r="J18">
-        <v>0.06729723542336785</v>
+        <v>0.3405661465705947</v>
       </c>
       <c r="K18">
-        <v>1.319078205553808</v>
+        <v>0.3659327548106823</v>
       </c>
       <c r="L18">
-        <v>0.2522327052286215</v>
+        <v>0.05996380971621917</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.201862984216206</v>
       </c>
       <c r="N18">
-        <v>0.9485601788195375</v>
+        <v>0.2758034191312646</v>
       </c>
       <c r="O18">
-        <v>2.498673177826333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.833560672291128</v>
+      </c>
+      <c r="Q18">
+        <v>1.504264782088256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.622146811945129</v>
+        <v>1.377942320672531</v>
       </c>
       <c r="C19">
-        <v>0.0975795798243837</v>
+        <v>0.1397564863518923</v>
       </c>
       <c r="D19">
-        <v>0.1102183729846757</v>
+        <v>0.1502972880945919</v>
       </c>
       <c r="E19">
-        <v>0.06586303670301419</v>
+        <v>0.0711229212246316</v>
       </c>
       <c r="F19">
-        <v>0.9918529949268304</v>
+        <v>0.6673588880035481</v>
       </c>
       <c r="G19">
-        <v>0.0008186619151920941</v>
+        <v>0.3968451248834839</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.002357184640830567</v>
       </c>
       <c r="J19">
-        <v>0.06729975193967519</v>
+        <v>0.3403859570931118</v>
       </c>
       <c r="K19">
-        <v>1.307618893906636</v>
+        <v>0.3657014623012209</v>
       </c>
       <c r="L19">
-        <v>0.2504180838520824</v>
+        <v>0.05992286253718149</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.191662580564525</v>
       </c>
       <c r="N19">
-        <v>0.9523707687263201</v>
+        <v>0.2740195045584954</v>
       </c>
       <c r="O19">
-        <v>2.494822760500995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.8358876106922288</v>
+      </c>
+      <c r="Q19">
+        <v>1.501479436523084</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.683967168398965</v>
+        <v>1.430608941536377</v>
       </c>
       <c r="C20">
-        <v>0.09880113120959777</v>
+        <v>0.1423085246841254</v>
       </c>
       <c r="D20">
-        <v>0.1138495716433283</v>
+        <v>0.1549196954308059</v>
       </c>
       <c r="E20">
-        <v>0.06694595878456155</v>
+        <v>0.07225104936157933</v>
       </c>
       <c r="F20">
-        <v>1.002601718214834</v>
+        <v>0.6737481101330829</v>
       </c>
       <c r="G20">
-        <v>0.0008172777131702263</v>
+        <v>0.4001060051196887</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002203244201667509</v>
       </c>
       <c r="J20">
-        <v>0.06729447397306387</v>
+        <v>0.3402839006738532</v>
       </c>
       <c r="K20">
-        <v>1.359227347751869</v>
+        <v>0.3650839646781634</v>
       </c>
       <c r="L20">
-        <v>0.2585984856280135</v>
+        <v>0.05990281597841118</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.237577298223783</v>
       </c>
       <c r="N20">
-        <v>0.9353150027699666</v>
+        <v>0.2830495283974273</v>
       </c>
       <c r="O20">
-        <v>2.512474168081923</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.8260805252209558</v>
+      </c>
+      <c r="Q20">
+        <v>1.508280644046309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.892923708422757</v>
+        <v>1.609138355424506</v>
       </c>
       <c r="C21">
-        <v>0.1029162643522454</v>
+        <v>0.1505450420388854</v>
       </c>
       <c r="D21">
-        <v>0.1261428599954684</v>
+        <v>0.1705269689266657</v>
       </c>
       <c r="E21">
-        <v>0.07067449333545994</v>
+        <v>0.07616425325299403</v>
       </c>
       <c r="F21">
-        <v>1.04085750635366</v>
+        <v>0.6970535423885025</v>
       </c>
       <c r="G21">
-        <v>0.000812707839967057</v>
+        <v>0.4124712454500781</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001769714613742757</v>
       </c>
       <c r="J21">
-        <v>0.06738515746284435</v>
+        <v>0.3407330761939278</v>
       </c>
       <c r="K21">
-        <v>1.533394712442544</v>
+        <v>0.3641195459960898</v>
       </c>
       <c r="L21">
-        <v>0.2863489485904864</v>
+        <v>0.05995948033422138</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.391932389907765</v>
       </c>
       <c r="N21">
-        <v>0.8796602168403691</v>
+        <v>0.3133474611883287</v>
       </c>
       <c r="O21">
-        <v>2.577654246354768</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.7939247747345206</v>
+      </c>
+      <c r="Q21">
+        <v>1.535769279379537</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.030525910443771</v>
+        <v>1.728428711328547</v>
       </c>
       <c r="C22">
-        <v>0.1056154359271986</v>
+        <v>0.1553556959883267</v>
       </c>
       <c r="D22">
-        <v>0.1342520628003143</v>
+        <v>0.1807537106661385</v>
       </c>
       <c r="E22">
-        <v>0.07318196907802133</v>
+        <v>0.07886469829155018</v>
       </c>
       <c r="F22">
-        <v>1.067549662047512</v>
+        <v>0.7143804772128632</v>
       </c>
       <c r="G22">
-        <v>0.0008097793578033144</v>
+        <v>0.4221930810012111</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001410719826449025</v>
       </c>
       <c r="J22">
-        <v>0.06752849690144558</v>
+        <v>0.3419128665456981</v>
       </c>
       <c r="K22">
-        <v>1.647879366272662</v>
+        <v>0.3648416269979542</v>
       </c>
       <c r="L22">
-        <v>0.3047001492523833</v>
+        <v>0.06015255764477345</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.492908991638984</v>
       </c>
       <c r="N22">
-        <v>0.8445602835754826</v>
+        <v>0.3328318493695832</v>
       </c>
       <c r="O22">
-        <v>2.624885264415099</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.7733014418619</v>
+      </c>
+      <c r="Q22">
+        <v>1.559062052035472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.956983063578321</v>
+        <v>1.667292510404224</v>
       </c>
       <c r="C23">
-        <v>0.1041738442104716</v>
+        <v>0.1522012632866989</v>
       </c>
       <c r="D23">
-        <v>0.1299168142219145</v>
+        <v>0.1752214499502855</v>
       </c>
       <c r="E23">
-        <v>0.07183698212273626</v>
+        <v>0.07750799457823021</v>
       </c>
       <c r="F23">
-        <v>1.053142725557024</v>
+        <v>0.7063066202390331</v>
       </c>
       <c r="G23">
-        <v>0.0008113371558472596</v>
+        <v>0.4179665722664936</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001270192090760958</v>
       </c>
       <c r="J23">
-        <v>0.06744408465218754</v>
+        <v>0.3417666325021003</v>
       </c>
       <c r="K23">
-        <v>1.58671123286021</v>
+        <v>0.3653488825726967</v>
       </c>
       <c r="L23">
-        <v>0.2948850077744822</v>
+        <v>0.06016012847217667</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.439003550798503</v>
       </c>
       <c r="N23">
-        <v>0.8631743355981065</v>
+        <v>0.3218642454559273</v>
       </c>
       <c r="O23">
-        <v>2.599236466538713</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.7838713135824946</v>
+      </c>
+      <c r="Q23">
+        <v>1.549683432871461</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.680567854092317</v>
+        <v>1.43155238929802</v>
       </c>
       <c r="C24">
-        <v>0.09873401232620438</v>
+        <v>0.1412856782581429</v>
       </c>
       <c r="D24">
-        <v>0.1136498275203479</v>
+        <v>0.1545658003441019</v>
       </c>
       <c r="E24">
-        <v>0.06688615977672185</v>
+        <v>0.0723247771227058</v>
       </c>
       <c r="F24">
-        <v>1.002003623825701</v>
+        <v>0.6753005930365248</v>
       </c>
       <c r="G24">
-        <v>0.0008173534176176894</v>
+        <v>0.4014781703904546</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001705856932338712</v>
       </c>
       <c r="J24">
-        <v>0.06729436400540578</v>
+        <v>0.3410784114346725</v>
       </c>
       <c r="K24">
-        <v>1.356390563312999</v>
+        <v>0.3665379473988821</v>
       </c>
       <c r="L24">
-        <v>0.2581482999195828</v>
+        <v>0.06007833598349777</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.235049681214662</v>
       </c>
       <c r="N24">
-        <v>0.9362455234327873</v>
+        <v>0.2817227103439137</v>
       </c>
       <c r="O24">
-        <v>2.511483365902365</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.8260986737229175</v>
+      </c>
+      <c r="Q24">
+        <v>1.512848476541421</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.386187836066</v>
+        <v>1.177064832611819</v>
       </c>
       <c r="C25">
-        <v>0.09289796115655236</v>
+        <v>0.1296199375375906</v>
       </c>
       <c r="D25">
-        <v>0.09638932923526511</v>
+        <v>0.1326551645996972</v>
       </c>
       <c r="E25">
-        <v>0.06182684591894727</v>
+        <v>0.06693856157535549</v>
       </c>
       <c r="F25">
-        <v>0.9535035530876499</v>
+        <v>0.6450759981370453</v>
       </c>
       <c r="G25">
-        <v>0.000824105935428825</v>
+        <v>0.3860331123459702</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.003143654056693812</v>
       </c>
       <c r="J25">
-        <v>0.06747311462556738</v>
+        <v>0.3417719017394489</v>
       </c>
       <c r="K25">
-        <v>1.110248974674107</v>
+        <v>0.3694150544942403</v>
       </c>
       <c r="L25">
-        <v>0.219336794281503</v>
+        <v>0.06014830749750999</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.01528248995939</v>
       </c>
       <c r="N25">
-        <v>1.020256364616579</v>
+        <v>0.2393855470519384</v>
       </c>
       <c r="O25">
-        <v>2.435105015866952</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.8748416165208326</v>
+      </c>
+      <c r="Q25">
+        <v>1.481056126463173</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_18/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9953235316507403</v>
+        <v>0.9610633227773349</v>
       </c>
       <c r="C2">
-        <v>0.119732885458177</v>
+        <v>0.1131457340753883</v>
       </c>
       <c r="D2">
-        <v>0.1166433936743516</v>
+        <v>0.1176190000550292</v>
       </c>
       <c r="E2">
-        <v>0.06335036352613876</v>
+        <v>0.06073456194227767</v>
       </c>
       <c r="F2">
-        <v>0.6283904225413863</v>
+        <v>0.5971427427452696</v>
       </c>
       <c r="G2">
-        <v>0.3789623456333686</v>
+        <v>0.3398764714638745</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.004191227675003795</v>
+        <v>0.003075881301123573</v>
       </c>
       <c r="J2">
-        <v>0.344706930788611</v>
+        <v>0.3532300749071311</v>
       </c>
       <c r="K2">
-        <v>0.3751006237273522</v>
+        <v>0.3441935462285706</v>
       </c>
       <c r="L2">
-        <v>0.06061106115768133</v>
+        <v>0.1636484901255955</v>
       </c>
       <c r="M2">
-        <v>0.8534179217035671</v>
+        <v>0.09932225595236055</v>
       </c>
       <c r="N2">
-        <v>0.2076205318358291</v>
+        <v>0.05598331846706017</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.8563054009174209</v>
       </c>
       <c r="P2">
-        <v>0.9126847393523647</v>
+        <v>0.2182142361704535</v>
       </c>
       <c r="Q2">
-        <v>1.471820298214695</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.8907753740473723</v>
+      </c>
+      <c r="S2">
+        <v>1.386282136920386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8683426304280317</v>
+        <v>0.8410143185497532</v>
       </c>
       <c r="C3">
-        <v>0.113836002690654</v>
+        <v>0.1048369823229294</v>
       </c>
       <c r="D3">
-        <v>0.106040827357667</v>
+        <v>0.1068440644954123</v>
       </c>
       <c r="E3">
-        <v>0.06088885124436594</v>
+        <v>0.05844141759059873</v>
       </c>
       <c r="F3">
-        <v>0.6167830476106317</v>
+        <v>0.5874398142292918</v>
       </c>
       <c r="G3">
-        <v>0.373775476214135</v>
+        <v>0.3374759592728864</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.005718599006434122</v>
+        <v>0.0041990497139337</v>
       </c>
       <c r="J3">
-        <v>0.3466433564641562</v>
+        <v>0.3530541564043688</v>
       </c>
       <c r="K3">
-        <v>0.3783835844212966</v>
+        <v>0.348334700439267</v>
       </c>
       <c r="L3">
-        <v>0.06084097802822797</v>
+        <v>0.1684810623310256</v>
       </c>
       <c r="M3">
-        <v>0.7436080279945259</v>
+        <v>0.09908982994066307</v>
       </c>
       <c r="N3">
-        <v>0.1872496752741171</v>
+        <v>0.05631888297104481</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.746496950692972</v>
       </c>
       <c r="P3">
-        <v>0.9402878891100421</v>
+        <v>0.1964575943889031</v>
       </c>
       <c r="Q3">
-        <v>1.464597042886595</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.9144608880506979</v>
+      </c>
+      <c r="S3">
+        <v>1.38324329581468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7900896483631072</v>
+        <v>0.7668379194121542</v>
       </c>
       <c r="C4">
-        <v>0.1102393508249335</v>
+        <v>0.09981017408002657</v>
       </c>
       <c r="D4">
-        <v>0.09960574913365861</v>
+        <v>0.1003062285559579</v>
       </c>
       <c r="E4">
-        <v>0.05941842796402597</v>
+        <v>0.05706719224031431</v>
       </c>
       <c r="F4">
-        <v>0.6102836992010552</v>
+        <v>0.5819934061332219</v>
       </c>
       <c r="G4">
-        <v>0.3710289075584399</v>
+        <v>0.3364439278624047</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.006860930734196025</v>
+        <v>0.005061812826558487</v>
       </c>
       <c r="J4">
-        <v>0.3481316359033713</v>
+        <v>0.3530731652541448</v>
       </c>
       <c r="K4">
-        <v>0.3807118922431272</v>
+        <v>0.3511053390215864</v>
       </c>
       <c r="L4">
-        <v>0.0610145846477721</v>
+        <v>0.1715645464360591</v>
       </c>
       <c r="M4">
-        <v>0.6760945549746253</v>
+        <v>0.09950883975853309</v>
       </c>
       <c r="N4">
-        <v>0.1749458770279517</v>
+        <v>0.05654796920430982</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.6789534861247404</v>
       </c>
       <c r="P4">
-        <v>0.9579799071617821</v>
+        <v>0.1833391263181881</v>
       </c>
       <c r="Q4">
-        <v>1.461709810480457</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.9297499415843582</v>
+      </c>
+      <c r="S4">
+        <v>1.382613192588607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7575124044700772</v>
+        <v>0.7358784573236505</v>
       </c>
       <c r="C5">
-        <v>0.1089139358741136</v>
+        <v>0.09793510920211901</v>
       </c>
       <c r="D5">
-        <v>0.09701812922051545</v>
+        <v>0.09767788793106291</v>
       </c>
       <c r="E5">
-        <v>0.05880693492446376</v>
+        <v>0.05649318844606022</v>
       </c>
       <c r="F5">
-        <v>0.6074695336135676</v>
+        <v>0.5795820838236452</v>
       </c>
       <c r="G5">
-        <v>0.3697554221415231</v>
+        <v>0.3358781494952581</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.007456697682428626</v>
+        <v>0.005547955024776563</v>
       </c>
       <c r="J5">
-        <v>0.3486774002539121</v>
+        <v>0.3529722122898349</v>
       </c>
       <c r="K5">
-        <v>0.3814952413544148</v>
+        <v>0.3520567232396914</v>
       </c>
       <c r="L5">
-        <v>0.06106368335433032</v>
+        <v>0.1727266810635015</v>
       </c>
       <c r="M5">
-        <v>0.6485589523968542</v>
+        <v>0.09976734631562145</v>
       </c>
       <c r="N5">
-        <v>0.1701165989768967</v>
+        <v>0.05661837974128403</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.6513988988005366</v>
       </c>
       <c r="P5">
-        <v>0.9654181839465323</v>
+        <v>0.178191025325809</v>
       </c>
       <c r="Q5">
-        <v>1.460076858529433</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.9362277118745723</v>
+      </c>
+      <c r="S5">
+        <v>1.3818350301229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7513459192801406</v>
+        <v>0.7299788889576746</v>
       </c>
       <c r="C6">
-        <v>0.1088606197148536</v>
+        <v>0.09781682048292595</v>
       </c>
       <c r="D6">
-        <v>0.096609886135262</v>
+        <v>0.09726334720211582</v>
       </c>
       <c r="E6">
-        <v>0.05867864395878186</v>
+        <v>0.05637108923150613</v>
       </c>
       <c r="F6">
-        <v>0.6066212997326019</v>
+        <v>0.5788020309978421</v>
       </c>
       <c r="G6">
-        <v>0.3692314546009143</v>
+        <v>0.3354821811450037</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.007664331306707517</v>
+        <v>0.005753007492680595</v>
       </c>
       <c r="J6">
-        <v>0.3486080192460435</v>
+        <v>0.3527860716030986</v>
       </c>
       <c r="K6">
-        <v>0.3813337815457594</v>
+        <v>0.3519327023310481</v>
       </c>
       <c r="L6">
-        <v>0.06103600195006997</v>
+        <v>0.1727710309267145</v>
       </c>
       <c r="M6">
-        <v>0.6439886583161325</v>
+        <v>0.0997536734860347</v>
       </c>
       <c r="N6">
-        <v>0.1694838181388221</v>
+        <v>0.0565953827510377</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.6468253309184036</v>
       </c>
       <c r="P6">
-        <v>0.9667210664623305</v>
+        <v>0.1775108591602574</v>
       </c>
       <c r="Q6">
-        <v>1.458807699525991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.9373933487516162</v>
+      </c>
+      <c r="S6">
+        <v>1.380717930482874</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.787588276106618</v>
+        <v>0.7639869842622318</v>
       </c>
       <c r="C7">
-        <v>0.110677748184898</v>
+        <v>0.1001797897475285</v>
       </c>
       <c r="D7">
-        <v>0.09962633986312142</v>
+        <v>0.100466523775701</v>
       </c>
       <c r="E7">
-        <v>0.0593353792053648</v>
+        <v>0.05701376848744566</v>
       </c>
       <c r="F7">
-        <v>0.6091803461714278</v>
+        <v>0.5803009797021019</v>
       </c>
       <c r="G7">
-        <v>0.3701410042807751</v>
+        <v>0.3378664911977864</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.007141306062920627</v>
+        <v>0.005387390245366497</v>
       </c>
       <c r="J7">
-        <v>0.3476905438189135</v>
+        <v>0.3493377044077874</v>
       </c>
       <c r="K7">
-        <v>0.3799145530858219</v>
+        <v>0.3500598125855063</v>
       </c>
       <c r="L7">
-        <v>0.06091617211305156</v>
+        <v>0.1710369034327819</v>
       </c>
       <c r="M7">
-        <v>0.6757328492090124</v>
+        <v>0.09925569270739487</v>
       </c>
       <c r="N7">
-        <v>0.1753347971025576</v>
+        <v>0.05645058927680147</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.6779555711113403</v>
       </c>
       <c r="P7">
-        <v>0.9582456271629525</v>
+        <v>0.1837015807514391</v>
       </c>
       <c r="Q7">
-        <v>1.458901950756825</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.9301872001553839</v>
+      </c>
+      <c r="S7">
+        <v>1.378135211845404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9488422620318602</v>
+        <v>0.9157627676254663</v>
       </c>
       <c r="C8">
-        <v>0.1183079703946817</v>
+        <v>0.1105335668703091</v>
       </c>
       <c r="D8">
-        <v>0.1130449795099793</v>
+        <v>0.1144277610223838</v>
       </c>
       <c r="E8">
-        <v>0.0623938563827835</v>
+        <v>0.05993467813026143</v>
       </c>
       <c r="F8">
-        <v>0.6228492731292476</v>
+        <v>0.5903019663231888</v>
       </c>
       <c r="G8">
-        <v>0.3759322287421014</v>
+        <v>0.3454567434679134</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.005001409080756858</v>
+        <v>0.003818447185115481</v>
       </c>
       <c r="J8">
-        <v>0.3447226338304858</v>
+        <v>0.3419413546544732</v>
       </c>
       <c r="K8">
-        <v>0.3751048802838248</v>
+        <v>0.3436410109258539</v>
       </c>
       <c r="L8">
-        <v>0.06055332757047971</v>
+        <v>0.1643896545058183</v>
       </c>
       <c r="M8">
-        <v>0.815582175249574</v>
+        <v>0.09856569097885703</v>
       </c>
       <c r="N8">
-        <v>0.2011555939947698</v>
+        <v>0.05596089796577175</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.8163410985428925</v>
       </c>
       <c r="P8">
-        <v>0.9223143300280796</v>
+        <v>0.2111601174689923</v>
       </c>
       <c r="Q8">
-        <v>1.46533281471055</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.8996259257077099</v>
+      </c>
+      <c r="S8">
+        <v>1.375686109737103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.266626745966278</v>
+        <v>1.214826132644475</v>
       </c>
       <c r="C9">
-        <v>0.1326791812010413</v>
+        <v>0.1309970965109457</v>
       </c>
       <c r="D9">
-        <v>0.1398906766780641</v>
+        <v>0.1418510324083258</v>
       </c>
       <c r="E9">
-        <v>0.06886174767844366</v>
+        <v>0.0659679930402568</v>
       </c>
       <c r="F9">
-        <v>0.656749567060487</v>
+        <v>0.6182206127312426</v>
       </c>
       <c r="G9">
-        <v>0.3924912516964341</v>
+        <v>0.3571654201007348</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.002095118862983192</v>
+        <v>0.001680933663713802</v>
       </c>
       <c r="J9">
-        <v>0.3421443829888702</v>
+        <v>0.3407922014401024</v>
       </c>
       <c r="K9">
-        <v>0.3696656293361116</v>
+        <v>0.3353088122643761</v>
       </c>
       <c r="L9">
-        <v>0.0602788995656951</v>
+        <v>0.1534317295159973</v>
       </c>
       <c r="M9">
-        <v>1.089293056720862</v>
+        <v>0.1023519542165889</v>
       </c>
       <c r="N9">
-        <v>0.2527062726786937</v>
+        <v>0.05536427317315251</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.089208055512813</v>
       </c>
       <c r="P9">
-        <v>0.8575447822533917</v>
+        <v>0.2663138060051153</v>
       </c>
       <c r="Q9">
-        <v>1.495700775129237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.8448229962284444</v>
+      </c>
+      <c r="S9">
+        <v>1.392231706750863</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.497892096734006</v>
+        <v>1.429091763897731</v>
       </c>
       <c r="C10">
-        <v>0.1437024254973451</v>
+        <v>0.1459882525940088</v>
       </c>
       <c r="D10">
-        <v>0.1600805923498712</v>
+        <v>0.163315971273704</v>
       </c>
       <c r="E10">
-        <v>0.07379788271877175</v>
+        <v>0.07071998631331411</v>
       </c>
       <c r="F10">
-        <v>0.6846155491401333</v>
+        <v>0.6375692476884822</v>
       </c>
       <c r="G10">
-        <v>0.4067091302155035</v>
+        <v>0.3817047527181856</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.001247279387346367</v>
+        <v>0.001243776211525827</v>
       </c>
       <c r="J10">
-        <v>0.3416305632463121</v>
+        <v>0.3231101184342151</v>
       </c>
       <c r="K10">
-        <v>0.3669542267743608</v>
+        <v>0.3284894074540112</v>
       </c>
       <c r="L10">
-        <v>0.06019450080832556</v>
+        <v>0.1452823579093767</v>
       </c>
       <c r="M10">
-        <v>1.290375580915708</v>
+        <v>0.1071300590943629</v>
       </c>
       <c r="N10">
-        <v>0.2920312650590802</v>
+        <v>0.05498569409723686</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.285575031058414</v>
       </c>
       <c r="P10">
-        <v>0.8140586613904084</v>
+        <v>0.308236141261645</v>
       </c>
       <c r="Q10">
-        <v>1.525215894544672</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.8098465894080853</v>
+      </c>
+      <c r="S10">
+        <v>1.400050783679177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.599391845062627</v>
+        <v>1.518614493174056</v>
       </c>
       <c r="C11">
-        <v>0.1495886081405828</v>
+        <v>0.1524242738113912</v>
       </c>
       <c r="D11">
-        <v>0.1694633342456626</v>
+        <v>0.1747915936769857</v>
       </c>
       <c r="E11">
-        <v>0.07597207349245494</v>
+        <v>0.07311399896476445</v>
       </c>
       <c r="F11">
-        <v>0.6963971381743761</v>
+        <v>0.6391959720138658</v>
       </c>
       <c r="G11">
-        <v>0.4123691539278695</v>
+        <v>0.4179523206620956</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.001547381201837617</v>
+        <v>0.001767598897647105</v>
       </c>
       <c r="J11">
-        <v>0.3410557401288372</v>
+        <v>0.2885975097497564</v>
       </c>
       <c r="K11">
-        <v>0.364828551748154</v>
+        <v>0.3217695609782787</v>
       </c>
       <c r="L11">
-        <v>0.06003579087935762</v>
+        <v>0.1404285067265487</v>
       </c>
       <c r="M11">
-        <v>1.381923930829174</v>
+        <v>0.1082367507955446</v>
       </c>
       <c r="N11">
-        <v>0.3109776218127251</v>
+        <v>0.05467341636373035</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.368030403541979</v>
       </c>
       <c r="P11">
-        <v>0.7957031685635414</v>
+        <v>0.328004988363773</v>
       </c>
       <c r="Q11">
-        <v>1.536207522000268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.797750607832068</v>
+      </c>
+      <c r="S11">
+        <v>1.383598906881488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.639653454465389</v>
+        <v>1.553746170246399</v>
       </c>
       <c r="C12">
-        <v>0.1514046895515335</v>
+        <v>0.1541874443425684</v>
       </c>
       <c r="D12">
-        <v>0.1729850989152055</v>
+        <v>0.1793082014318657</v>
       </c>
       <c r="E12">
-        <v>0.07686869972705068</v>
+        <v>0.07413406708296577</v>
       </c>
       <c r="F12">
-        <v>0.7019027077267666</v>
+        <v>0.6400048697428602</v>
       </c>
       <c r="G12">
-        <v>0.4153520661431003</v>
+        <v>0.436501357859612</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.001488368151960628</v>
+        <v>0.001742187308287235</v>
       </c>
       <c r="J12">
-        <v>0.3412739818922859</v>
+        <v>0.2744530878413869</v>
       </c>
       <c r="K12">
-        <v>0.3647670544598327</v>
+        <v>0.3195491925751917</v>
       </c>
       <c r="L12">
-        <v>0.06006525951175945</v>
+        <v>0.1387424400593495</v>
       </c>
       <c r="M12">
-        <v>1.416605399588775</v>
+        <v>0.1088246048990662</v>
       </c>
       <c r="N12">
-        <v>0.317800047262665</v>
+        <v>0.05463524280604659</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.398359244186878</v>
       </c>
       <c r="P12">
-        <v>0.7886351534971823</v>
+        <v>0.3350715508475304</v>
       </c>
       <c r="Q12">
-        <v>1.543061733251818</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.7932840958649905</v>
+      </c>
+      <c r="S12">
+        <v>1.37767005415121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.631357274874631</v>
+        <v>1.54657454145439</v>
       </c>
       <c r="C13">
-        <v>0.150926923203258</v>
+        <v>0.1537126423974797</v>
       </c>
       <c r="D13">
-        <v>0.1722162481958094</v>
+        <v>0.178315339321756</v>
       </c>
       <c r="E13">
-        <v>0.07668843228695366</v>
+        <v>0.07392522752623876</v>
       </c>
       <c r="F13">
-        <v>0.7008958589683303</v>
+        <v>0.6400383192106318</v>
       </c>
       <c r="G13">
-        <v>0.4148558513337832</v>
+        <v>0.4324692836094215</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.001453355985896465</v>
+        <v>0.001691211243042723</v>
       </c>
       <c r="J13">
-        <v>0.3413007691663239</v>
+        <v>0.277575694840472</v>
       </c>
       <c r="K13">
-        <v>0.3649149494886288</v>
+        <v>0.3201640336012552</v>
       </c>
       <c r="L13">
-        <v>0.06007553018020317</v>
+        <v>0.1391497560947741</v>
       </c>
       <c r="M13">
-        <v>1.409135078675547</v>
+        <v>0.1087538640685395</v>
       </c>
       <c r="N13">
-        <v>0.3162481134222332</v>
+        <v>0.05465896845795726</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.391867497276422</v>
       </c>
       <c r="P13">
-        <v>0.790097582812372</v>
+        <v>0.3334664984702158</v>
       </c>
       <c r="Q13">
-        <v>1.542050136331795</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.7941447548208558</v>
+      </c>
+      <c r="S13">
+        <v>1.379481857067361</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.602863349918863</v>
+        <v>1.521673063493409</v>
       </c>
       <c r="C14">
-        <v>0.1497012176565917</v>
+        <v>0.152529007311216</v>
       </c>
       <c r="D14">
-        <v>0.1697486441292995</v>
+        <v>0.1751544062241095</v>
       </c>
       <c r="E14">
-        <v>0.07605128290821384</v>
+        <v>0.07320247375771061</v>
       </c>
       <c r="F14">
-        <v>0.6969259427325625</v>
+        <v>0.6393517390580996</v>
       </c>
       <c r="G14">
-        <v>0.4126765791577469</v>
+        <v>0.4194580014185476</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.001521875652538363</v>
+        <v>0.001741114678794453</v>
       </c>
       <c r="J14">
-        <v>0.3411049951642582</v>
+        <v>0.2874721872722503</v>
       </c>
       <c r="K14">
-        <v>0.3648806466053429</v>
+        <v>0.3216455591003395</v>
       </c>
       <c r="L14">
-        <v>0.06004527038639296</v>
+        <v>0.1403089696019748</v>
       </c>
       <c r="M14">
-        <v>1.384776717865009</v>
+        <v>0.1083088211993193</v>
       </c>
       <c r="N14">
-        <v>0.3115037652539598</v>
+        <v>0.05467686879001477</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.37054355185029</v>
       </c>
       <c r="P14">
-        <v>0.7950963107840074</v>
+        <v>0.3285510365576982</v>
       </c>
       <c r="Q14">
-        <v>1.536968490969883</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.7973403299887849</v>
+      </c>
+      <c r="S14">
+        <v>1.383341504578055</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.584671933517853</v>
+        <v>1.50561798102234</v>
       </c>
       <c r="C15">
-        <v>0.1491215220232149</v>
+        <v>0.1519854584091291</v>
       </c>
       <c r="D15">
-        <v>0.1682583232367278</v>
+        <v>0.1732671826316192</v>
       </c>
       <c r="E15">
-        <v>0.07563607846305587</v>
+        <v>0.07274052388426355</v>
       </c>
       <c r="F15">
-        <v>0.6941473611539806</v>
+        <v>0.6384905027283025</v>
       </c>
       <c r="G15">
-        <v>0.4110576810009405</v>
+        <v>0.4117421088372453</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.001664094636872449</v>
+        <v>0.001889429475133042</v>
       </c>
       <c r="J15">
-        <v>0.3408420338821827</v>
+        <v>0.2933026477603065</v>
       </c>
       <c r="K15">
-        <v>0.3645969181040378</v>
+        <v>0.3222686246581041</v>
       </c>
       <c r="L15">
-        <v>0.05999423913730695</v>
+        <v>0.1409262696124909</v>
       </c>
       <c r="M15">
-        <v>1.369859458034256</v>
+        <v>0.1079235992654475</v>
       </c>
       <c r="N15">
-        <v>0.3087624022536488</v>
+        <v>0.05465732232168108</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.357365275913907</v>
       </c>
       <c r="P15">
-        <v>0.7982802186173679</v>
+        <v>0.3257037400921661</v>
       </c>
       <c r="Q15">
-        <v>1.532953900461251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.7995113394180784</v>
+      </c>
+      <c r="S15">
+        <v>1.384560174273162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.485074838555647</v>
+        <v>1.417064153075756</v>
       </c>
       <c r="C16">
-        <v>0.1447363238782486</v>
+        <v>0.147252682004094</v>
       </c>
       <c r="D16">
-        <v>0.1596296218489925</v>
+        <v>0.1627591681815801</v>
       </c>
       <c r="E16">
-        <v>0.07343819953433695</v>
+        <v>0.07035354902493296</v>
       </c>
       <c r="F16">
-        <v>0.6807964806278335</v>
+        <v>0.6344035960410253</v>
       </c>
       <c r="G16">
-        <v>0.4038527557626921</v>
+        <v>0.3773534775653928</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.001981602416146089</v>
+        <v>0.002107247471773377</v>
       </c>
       <c r="J16">
-        <v>0.3404056800072652</v>
+        <v>0.3239563828094916</v>
       </c>
       <c r="K16">
-        <v>0.3648148754014997</v>
+        <v>0.3267926517670929</v>
       </c>
       <c r="L16">
-        <v>0.05992490517901672</v>
+        <v>0.1448433746456921</v>
       </c>
       <c r="M16">
-        <v>1.284402172071395</v>
+        <v>0.1062086852227928</v>
       </c>
       <c r="N16">
-        <v>0.292133011061054</v>
+        <v>0.05474538083983305</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.280079163994458</v>
       </c>
       <c r="P16">
-        <v>0.8161226199493363</v>
+        <v>0.3083271281725359</v>
       </c>
       <c r="Q16">
-        <v>1.516581461527295</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.81188388102278</v>
+      </c>
+      <c r="S16">
+        <v>1.393285896179066</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.423955352609767</v>
+        <v>1.361760389701459</v>
       </c>
       <c r="C17">
-        <v>0.1420577111140133</v>
+        <v>0.1440548720038635</v>
       </c>
       <c r="D17">
-        <v>0.1543640007782159</v>
+        <v>0.1566763532404423</v>
       </c>
       <c r="E17">
-        <v>0.07210441895890796</v>
+        <v>0.06897076042206507</v>
       </c>
       <c r="F17">
-        <v>0.6728365401174301</v>
+        <v>0.6307330740811281</v>
       </c>
       <c r="G17">
-        <v>0.3996002448216629</v>
+        <v>0.3624882528978546</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.002256548952979998</v>
+        <v>0.002307806822929415</v>
       </c>
       <c r="J17">
-        <v>0.340239891014491</v>
+        <v>0.3383028789872355</v>
       </c>
       <c r="K17">
-        <v>0.3650600149120748</v>
+        <v>0.3290572984036437</v>
       </c>
       <c r="L17">
-        <v>0.05989318835565172</v>
+        <v>0.1471066194384392</v>
       </c>
       <c r="M17">
-        <v>1.231999958064335</v>
+        <v>0.1050442359122421</v>
       </c>
       <c r="N17">
-        <v>0.2820059843051581</v>
+        <v>0.05480324878772969</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.231158525499069</v>
       </c>
       <c r="P17">
-        <v>0.8272988177982477</v>
+        <v>0.2976556528791576</v>
       </c>
       <c r="Q17">
-        <v>1.507103925633643</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.8202179747939198</v>
+      </c>
+      <c r="S17">
+        <v>1.395310704877417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.390656526258056</v>
+        <v>1.331450473545914</v>
       </c>
       <c r="C18">
-        <v>0.1400899998982581</v>
+        <v>0.1415890417882224</v>
       </c>
       <c r="D18">
-        <v>0.1512967140130286</v>
+        <v>0.1532536854294761</v>
       </c>
       <c r="E18">
-        <v>0.07140862794953762</v>
+        <v>0.06826899132756026</v>
       </c>
       <c r="F18">
-        <v>0.6692688031126224</v>
+        <v>0.6291190342123727</v>
       </c>
       <c r="G18">
-        <v>0.3979701692532771</v>
+        <v>0.3566939609897446</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.002177544702311351</v>
+        <v>0.002130863151684537</v>
       </c>
       <c r="J18">
-        <v>0.3405661465705947</v>
+        <v>0.3448812141657811</v>
       </c>
       <c r="K18">
-        <v>0.3659327548106823</v>
+        <v>0.3308207111438008</v>
       </c>
       <c r="L18">
-        <v>0.05996380971621917</v>
+        <v>0.1485914885398127</v>
       </c>
       <c r="M18">
-        <v>1.201862984216206</v>
+        <v>0.1045891085533199</v>
       </c>
       <c r="N18">
-        <v>0.2758034191312646</v>
+        <v>0.05491700941287725</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.202487272043925</v>
       </c>
       <c r="P18">
-        <v>0.833560672291128</v>
+        <v>0.2910954989809653</v>
       </c>
       <c r="Q18">
-        <v>1.504264782088256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.8249227245961706</v>
+      </c>
+      <c r="S18">
+        <v>1.397619778839044</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.377942320672531</v>
+        <v>1.319709348638156</v>
       </c>
       <c r="C19">
-        <v>0.1397564863518923</v>
+        <v>0.1411378191777857</v>
       </c>
       <c r="D19">
-        <v>0.1502972880945919</v>
+        <v>0.1521538799583624</v>
       </c>
       <c r="E19">
-        <v>0.0711229212246316</v>
+        <v>0.06798563539532765</v>
       </c>
       <c r="F19">
-        <v>0.6673588880035481</v>
+        <v>0.627807600974549</v>
       </c>
       <c r="G19">
-        <v>0.3968451248834839</v>
+        <v>0.3544946642435889</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.002357184640830567</v>
+        <v>0.002315444459039639</v>
       </c>
       <c r="J19">
-        <v>0.3403859570931118</v>
+        <v>0.3464452401009979</v>
       </c>
       <c r="K19">
-        <v>0.3657014623012209</v>
+        <v>0.330893339530153</v>
       </c>
       <c r="L19">
-        <v>0.05992286253718149</v>
+        <v>0.1489013716352865</v>
       </c>
       <c r="M19">
-        <v>1.191662580564525</v>
+        <v>0.104239746083163</v>
       </c>
       <c r="N19">
-        <v>0.2740195045584954</v>
+        <v>0.05489462726335326</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.192695345660638</v>
       </c>
       <c r="P19">
-        <v>0.8358876106922288</v>
+        <v>0.2891973535006827</v>
       </c>
       <c r="Q19">
-        <v>1.501479436523084</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.8268193154099102</v>
+      </c>
+      <c r="S19">
+        <v>1.396419560865809</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.430608941536377</v>
+        <v>1.367828123483207</v>
       </c>
       <c r="C20">
-        <v>0.1423085246841254</v>
+        <v>0.144365344805891</v>
       </c>
       <c r="D20">
-        <v>0.1549196954308059</v>
+        <v>0.1573068156631194</v>
       </c>
       <c r="E20">
-        <v>0.07225104936157933</v>
+        <v>0.06912013746788048</v>
       </c>
       <c r="F20">
-        <v>0.6737481101330829</v>
+        <v>0.6312371553272627</v>
       </c>
       <c r="G20">
-        <v>0.4001060051196887</v>
+        <v>0.3639136492571495</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.002203244201667509</v>
+        <v>0.002258776889982883</v>
       </c>
       <c r="J20">
-        <v>0.3402839006738532</v>
+        <v>0.3370089582630555</v>
       </c>
       <c r="K20">
-        <v>0.3650839646781634</v>
+        <v>0.328885092691884</v>
       </c>
       <c r="L20">
-        <v>0.05990281597841118</v>
+        <v>0.1468895936234151</v>
       </c>
       <c r="M20">
-        <v>1.237577298223783</v>
+        <v>0.1051912816977385</v>
       </c>
       <c r="N20">
-        <v>0.2830495283974273</v>
+        <v>0.05480315709154482</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.23642113335481</v>
       </c>
       <c r="P20">
-        <v>0.8260805252209558</v>
+        <v>0.298759053470107</v>
       </c>
       <c r="Q20">
-        <v>1.508280644046309</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.8192770116300707</v>
+      </c>
+      <c r="S20">
+        <v>1.395398725842099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.609138355424506</v>
+        <v>1.525513063349763</v>
       </c>
       <c r="C21">
-        <v>0.1505450420388854</v>
+        <v>0.1529400428125314</v>
       </c>
       <c r="D21">
-        <v>0.1705269689266657</v>
+        <v>0.1766672007531156</v>
       </c>
       <c r="E21">
-        <v>0.07616425325299403</v>
+        <v>0.07345044738458029</v>
       </c>
       <c r="F21">
-        <v>0.6970535423885025</v>
+        <v>0.6364001158176862</v>
       </c>
       <c r="G21">
-        <v>0.4124712454500781</v>
+        <v>0.4317340854482126</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.001769714613742757</v>
+        <v>0.002049635037215225</v>
       </c>
       <c r="J21">
-        <v>0.3407330761939278</v>
+        <v>0.2761753178060289</v>
       </c>
       <c r="K21">
-        <v>0.3641195459960898</v>
+        <v>0.3195600542426789</v>
       </c>
       <c r="L21">
-        <v>0.05995948033422138</v>
+        <v>0.1394094210157864</v>
       </c>
       <c r="M21">
-        <v>1.391932389907765</v>
+        <v>0.1077478166099795</v>
       </c>
       <c r="N21">
-        <v>0.3133474611883287</v>
+        <v>0.05457669223031303</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.374416272737733</v>
       </c>
       <c r="P21">
-        <v>0.7939247747345206</v>
+        <v>0.3303134384150326</v>
       </c>
       <c r="Q21">
-        <v>1.535769279379537</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.7975912723206307</v>
+      </c>
+      <c r="S21">
+        <v>1.373623955856203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.728428711328547</v>
+        <v>1.630157193288653</v>
       </c>
       <c r="C22">
-        <v>0.1553556959883267</v>
+        <v>0.1576974470979735</v>
       </c>
       <c r="D22">
-        <v>0.1807537106661385</v>
+        <v>0.1896586035910275</v>
       </c>
       <c r="E22">
-        <v>0.07886469829155018</v>
+        <v>0.07648116642883451</v>
       </c>
       <c r="F22">
-        <v>0.7143804772128632</v>
+        <v>0.6406054457593555</v>
       </c>
       <c r="G22">
-        <v>0.4221930810012111</v>
+        <v>0.4859898150456985</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.001410719826449025</v>
+        <v>0.001713588212655992</v>
       </c>
       <c r="J22">
-        <v>0.3419128665456981</v>
+        <v>0.2435138032176667</v>
       </c>
       <c r="K22">
-        <v>0.3648416269979542</v>
+        <v>0.3141931126522621</v>
       </c>
       <c r="L22">
-        <v>0.06015255764477345</v>
+        <v>0.1349510504612432</v>
       </c>
       <c r="M22">
-        <v>1.492908991638984</v>
+        <v>0.1099791641914472</v>
       </c>
       <c r="N22">
-        <v>0.3328318493695832</v>
+        <v>0.05456702305606598</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.463379379042436</v>
       </c>
       <c r="P22">
-        <v>0.7733014418619</v>
+        <v>0.35053657789841</v>
       </c>
       <c r="Q22">
-        <v>1.559062052035472</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.7843332237547855</v>
+      </c>
+      <c r="S22">
+        <v>1.361299977576735</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.667292510404224</v>
+        <v>1.577879378720866</v>
       </c>
       <c r="C23">
-        <v>0.1522012632866989</v>
+        <v>0.1548320941500947</v>
       </c>
       <c r="D23">
-        <v>0.1752214499502855</v>
+        <v>0.1822450250367638</v>
       </c>
       <c r="E23">
-        <v>0.07750799457823021</v>
+        <v>0.07486478676329611</v>
       </c>
       <c r="F23">
-        <v>0.7063066202390331</v>
+        <v>0.641099973120113</v>
       </c>
       <c r="G23">
-        <v>0.4179665722664936</v>
+        <v>0.4504692743398095</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.001270192090760958</v>
+        <v>0.001504048776832079</v>
       </c>
       <c r="J23">
-        <v>0.3417666325021003</v>
+        <v>0.2654187657323988</v>
       </c>
       <c r="K23">
-        <v>0.3653488825726967</v>
+        <v>0.3185675545845754</v>
       </c>
       <c r="L23">
-        <v>0.06016012847217667</v>
+        <v>0.1378138118090391</v>
       </c>
       <c r="M23">
-        <v>1.439003550798503</v>
+        <v>0.1094072740398566</v>
       </c>
       <c r="N23">
-        <v>0.3218642454559273</v>
+        <v>0.05467987721576506</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.417684904050247</v>
       </c>
       <c r="P23">
-        <v>0.7838713135824946</v>
+        <v>0.3392650136624979</v>
       </c>
       <c r="Q23">
-        <v>1.549683432871461</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.7901831292624877</v>
+      </c>
+      <c r="S23">
+        <v>1.375234540786948</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.43155238929802</v>
+        <v>1.368989107098969</v>
       </c>
       <c r="C24">
-        <v>0.1412856782581429</v>
+        <v>0.143126346932462</v>
       </c>
       <c r="D24">
-        <v>0.1545658003441019</v>
+        <v>0.1569165155904244</v>
       </c>
       <c r="E24">
-        <v>0.0723247771227058</v>
+        <v>0.06919100272914136</v>
       </c>
       <c r="F24">
-        <v>0.6753005930365248</v>
+        <v>0.6329200286881971</v>
       </c>
       <c r="G24">
-        <v>0.4014781703904546</v>
+        <v>0.3648255509759366</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.001705856932338712</v>
+        <v>0.00165917663582249</v>
       </c>
       <c r="J24">
-        <v>0.3410784114346725</v>
+        <v>0.3383653421771911</v>
       </c>
       <c r="K24">
-        <v>0.3665379473988821</v>
+        <v>0.330316169751903</v>
       </c>
       <c r="L24">
-        <v>0.06007833598349777</v>
+        <v>0.1474824510484911</v>
       </c>
       <c r="M24">
-        <v>1.235049681214662</v>
+        <v>0.1056533715156469</v>
       </c>
       <c r="N24">
-        <v>0.2817227103439137</v>
+        <v>0.05497076493962183</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.234033728914369</v>
       </c>
       <c r="P24">
-        <v>0.8260986737229175</v>
+        <v>0.2973732457968765</v>
       </c>
       <c r="Q24">
-        <v>1.512848476541421</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.818969898162198</v>
+      </c>
+      <c r="S24">
+        <v>1.400250448928389</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.177064832611819</v>
+        <v>1.131077286105494</v>
       </c>
       <c r="C25">
-        <v>0.1296199375375906</v>
+        <v>0.1266124946508995</v>
       </c>
       <c r="D25">
-        <v>0.1326551645996972</v>
+        <v>0.1342576169894869</v>
       </c>
       <c r="E25">
-        <v>0.06693856157535549</v>
+        <v>0.06412846519004489</v>
       </c>
       <c r="F25">
-        <v>0.6450759981370453</v>
+        <v>0.6091704952517105</v>
       </c>
       <c r="G25">
-        <v>0.3860331123459702</v>
+        <v>0.3487651408533452</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.003143654056693812</v>
+        <v>0.002629847835793342</v>
       </c>
       <c r="J25">
-        <v>0.3417719017394489</v>
+        <v>0.3446514212478675</v>
       </c>
       <c r="K25">
-        <v>0.3694150544942403</v>
+        <v>0.3363996841826165</v>
       </c>
       <c r="L25">
-        <v>0.06014830749750999</v>
+        <v>0.1559057542891367</v>
       </c>
       <c r="M25">
-        <v>1.01528248995939</v>
+        <v>0.1005120680567764</v>
       </c>
       <c r="N25">
-        <v>0.2393855470519384</v>
+        <v>0.05534320347283384</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.016393141985674</v>
       </c>
       <c r="P25">
-        <v>0.8748416165208326</v>
+        <v>0.252072071726559</v>
       </c>
       <c r="Q25">
-        <v>1.481056126463173</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.859355898464262</v>
+      </c>
+      <c r="S25">
+        <v>1.384210148517568</v>
       </c>
     </row>
   </sheetData>
